--- a/cursus handleiding/MOSCOW.xlsx
+++ b/cursus handleiding/MOSCOW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\OneDrive\Bureaublad\technische informatica\project34\betaalautomaatTI\cursus handleiding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77339229-52EE-4CC6-A569-9A6F145CF467}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4223A661-29B1-4B48-8CA9-FCA7A523476C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{163A3B9C-32E5-4620-A61A-9076D9749C05}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Gelddispense (minstens twee geldlades)</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Jelle</t>
+  </si>
+  <si>
+    <t>Niek</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>jesse</t>
   </si>
 </sst>
 </file>
@@ -137,12 +149,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB889DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -157,9 +193,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,6 +225,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB889DB"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -504,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A8A1019-F083-4912-98D2-7C11E7B72186}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +561,7 @@
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -524,7 +569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -532,7 +577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -540,7 +585,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -548,7 +593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -556,7 +601,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -564,7 +609,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -572,7 +617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -580,7 +625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -588,39 +633,51 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E11" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E12" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -628,7 +685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -636,7 +693,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>

--- a/cursus handleiding/MOSCOW.xlsx
+++ b/cursus handleiding/MOSCOW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jesse\OneDrive\Bureaublad\technische informatica\project34\betaalautomaatTI\cursus handleiding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4223A661-29B1-4B48-8CA9-FCA7A523476C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A461FAC-4EB6-42DA-957F-D0D1D03FD2C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{163A3B9C-32E5-4620-A61A-9076D9749C05}"/>
   </bookViews>
@@ -552,7 +552,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -589,7 +589,7 @@
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -597,7 +597,7 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>26</v>
       </c>
     </row>
